--- a/ToyMarket.xlsx
+++ b/ToyMarket.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\205\Desktop\Practica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D70555B-0E0E-4D15-915C-1D8E65305AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB20125D-7E5F-48AC-911C-3B05C7470EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toys" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="114">
   <si>
     <t>Denumire</t>
   </si>
@@ -363,33 +363,6 @@
     </r>
   </si>
   <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Irak</t>
-  </si>
-  <si>
     <t>Israel</t>
   </si>
   <si>
@@ -481,13 +454,22 @@
   </si>
   <si>
     <t>Nr. de jucării produse</t>
+  </si>
+  <si>
+    <t>Totalul tuturor jucăriilor:</t>
+  </si>
+  <si>
+    <t>Tipuri de jucării</t>
+  </si>
+  <si>
+    <t>Prețul mediu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,16 +568,29 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -836,22 +831,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -885,17 +890,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -906,45 +905,83 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="1"/>
-        <name val="Book Antiqua"/>
-        <family val="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="mediumDashed">
-          <color theme="5" tint="0.59999389629810485"/>
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
         </left>
-        <right style="mediumDashed">
-          <color theme="5" tint="0.59999389629810485"/>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
         </right>
-        <top style="mediumDashed">
-          <color theme="5" tint="0.59999389629810485"/>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
         </top>
-        <bottom style="mediumDashed">
-          <color theme="5" tint="0.59999389629810485"/>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
         </bottom>
-        <vertical style="mediumDashed">
-          <color theme="5" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="mediumDashed">
-          <color theme="5" tint="0.59999389629810485"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -965,10 +1002,8 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="mediumDashed">
-          <color theme="5" tint="0.59999389629810485"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="mediumDashed">
           <color theme="5" tint="0.59999389629810485"/>
         </right>
@@ -978,12 +1013,6 @@
         <bottom style="mediumDashed">
           <color theme="5" tint="0.59999389629810485"/>
         </bottom>
-        <vertical style="mediumDashed">
-          <color theme="5" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="mediumDashed">
-          <color theme="5" tint="0.59999389629810485"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1004,7 +1033,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="mediumDashed">
           <color theme="5" tint="0.59999389629810485"/>
         </left>
@@ -1017,12 +1046,36 @@
         <bottom style="mediumDashed">
           <color theme="5" tint="0.59999389629810485"/>
         </bottom>
-        <vertical style="mediumDashed">
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Book Antiqua"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="mediumDashed">
           <color theme="5" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="mediumDashed">
+        </left>
+        <right style="mediumDashed">
           <color theme="5" tint="0.59999389629810485"/>
-        </horizontal>
+        </right>
+        <top style="mediumDashed">
+          <color theme="5" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="mediumDashed">
+          <color theme="5" tint="0.59999389629810485"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1042,9 +1095,11 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="mediumDashed">
+          <color theme="5" tint="0.59999389629810485"/>
+        </left>
         <right style="mediumDashed">
           <color theme="5" tint="0.59999389629810485"/>
         </right>
@@ -1054,12 +1109,6 @@
         <bottom style="mediumDashed">
           <color theme="5" tint="0.59999389629810485"/>
         </bottom>
-        <vertical style="mediumDashed">
-          <color theme="5" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="mediumDashed">
-          <color theme="5" tint="0.59999389629810485"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1138,41 +1187,6 @@
         </vertical>
         <horizontal style="mediumDashed">
           <color theme="5" tint="0.59999389629810485"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Segoe UI Black"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="double">
-          <color rgb="FF00B0F0"/>
-        </left>
-        <right style="double">
-          <color rgb="FF00B0F0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="double">
-          <color rgb="FF00B0F0"/>
-        </vertical>
-        <horizontal style="double">
-          <color rgb="FF00B0F0"/>
         </horizontal>
       </border>
     </dxf>
@@ -1375,13 +1389,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="double">
-          <color rgb="FF00B0F0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="double">
           <color rgb="FF00B0F0"/>
@@ -1416,6 +1423,48 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="double">
+          <color rgb="FF00B0F0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="double">
+          <color rgb="FF00B0F0"/>
+        </left>
+        <right style="double">
+          <color rgb="FF00B0F0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="double">
+          <color rgb="FF00B0F0"/>
+        </vertical>
+        <horizontal style="double">
+          <color rgb="FF00B0F0"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1435,29 +1484,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C17355E5-B852-4DBB-B315-94C9EBFF0EBE}" name="Table1" displayName="Table1" ref="A2:E32" totalsRowShown="0" headerRowDxfId="9" dataDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C17355E5-B852-4DBB-B315-94C9EBFF0EBE}" name="Table1" displayName="Table1" ref="A2:E32" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A2:E32" xr:uid="{C17355E5-B852-4DBB-B315-94C9EBFF0EBE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5CDDE2A6-8A46-4C5E-80C2-182916B58004}" name="Denumire" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{8ABF2DC5-A66F-44B6-B2DF-71ADF45153B9}" name="Preț" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{3F292F19-36A4-49E9-97D6-74CDB00EE32B}" name="Cantitate" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{F496B1EE-FC0D-43AE-ADB8-1FA30D5020B3}" name="Categorie" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{E7325008-8428-4E5C-8551-54747640CD1D}" name="Codul" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{5CDDE2A6-8A46-4C5E-80C2-182916B58004}" name="Denumire" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{8ABF2DC5-A66F-44B6-B2DF-71ADF45153B9}" name="Preț" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{3F292F19-36A4-49E9-97D6-74CDB00EE32B}" name="Cantitate" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{F496B1EE-FC0D-43AE-ADB8-1FA30D5020B3}" name="Categorie" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{E7325008-8428-4E5C-8551-54747640CD1D}" name="Codul" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2333FC86-6276-4B4A-8383-11EA3A3CC7E2}" name="Table2" displayName="Table2" ref="A2:D31" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2333FC86-6276-4B4A-8383-11EA3A3CC7E2}" name="Table2" displayName="Table2" ref="A2:D31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
   <autoFilter ref="A2:D31" xr:uid="{2333FC86-6276-4B4A-8383-11EA3A3CC7E2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{27A8EF87-A96A-4913-AF00-3BCB7135AFC6}" name="Codul" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F17B0632-9C3F-463D-8463-CAEB6D556B0C}" name="Denumire" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{788B28C5-4795-474A-AB06-84C25ACF072F}" name="Țara" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{61C1A9FC-82D7-44D5-A160-4330E46C6C61}" name="Nr. de jucării produse" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{27A8EF87-A96A-4913-AF00-3BCB7135AFC6}" name="Codul" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F17B0632-9C3F-463D-8463-CAEB6D556B0C}" name="Denumire" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{788B28C5-4795-474A-AB06-84C25ACF072F}" name="Țara" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{61C1A9FC-82D7-44D5-A160-4330E46C6C61}" name="Nr. de jucării produse" dataDxfId="6">
       <calculatedColumnFormula>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BABEE199-5AB6-4FB1-8197-12598B8B392F}" name="Table3" displayName="Table3" ref="A1:C42" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:C42" xr:uid="{BABEE199-5AB6-4FB1-8197-12598B8B392F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2FC9A497-F9A3-4E55-ABBC-57DF662B8921}" name="Țara" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{62AFA081-A178-4249-B050-44F2DC6F4670}" name="Tipuri de jucării" dataDxfId="0">
+      <calculatedColumnFormula>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{7437C3CC-65A3-4208-BA4B-2CFD86A239FE}" name="Prețul mediu" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1731,8 +1794,8 @@
   </sheetPr>
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,45 +1808,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:29" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>150</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>550</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>1</v>
       </c>
       <c r="AB3" t="s">
@@ -1794,30 +1857,30 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>80</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>1000</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>2</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
       <c r="AB4" t="s">
         <v>8</v>
       </c>
@@ -1826,30 +1889,30 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>120</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>750</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>1</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
       <c r="AB5" t="s">
         <v>11</v>
       </c>
@@ -1858,766 +1921,766 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>15</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>5000</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>4</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
       <c r="AC6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>60</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>1500</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>2</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
       <c r="AC7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>190</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>400</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
       <c r="AC8">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>220</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>350</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>7</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
       <c r="AC9">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>95</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>900</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>8</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
       <c r="AC10">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>50</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>1800</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>10</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
       <c r="AC11">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>280</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>250</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
       <c r="AC12">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>160</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>600</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>11</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
       <c r="AC13">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>40</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>2500</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>12</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
       <c r="AC14">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>450</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>100</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>13</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
       <c r="AC15">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>70</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>1200</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>14</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
       <c r="AC16">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>320</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>200</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>16</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
       <c r="AC17">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="7">
         <v>200</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>500</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>16</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
       <c r="AC18">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>30</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>3000</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>17</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
       <c r="AC19">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <v>65</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>1500</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <v>18</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
       <c r="AC20">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>110</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>800</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <v>19</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
       <c r="AC21">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>380</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>150</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <v>2</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
       <c r="AC22">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>45</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>2000</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="8">
         <v>21</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
       <c r="AC23">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="7">
         <v>55</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="7">
         <v>1200</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <v>22</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
       <c r="AC24">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <v>260</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>300</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="10">
-        <v>22</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="E25" s="8">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
       <c r="AC25">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="7">
         <v>25</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="7">
         <v>2800</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="8">
         <v>24</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
       <c r="AC26">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="7">
         <v>130</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>700</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>2</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
       <c r="AC27">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="7">
         <v>170</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <v>400</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="8">
         <v>26</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
       <c r="AC28">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="7">
         <v>250</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="7">
         <v>600</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <v>29</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
       <c r="AC29">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="7">
         <v>11</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="7">
         <v>10</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="8">
         <v>30</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
       <c r="AC30">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="7">
         <v>100</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <v>1000</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="8">
         <v>29</v>
       </c>
       <c r="AC31">
@@ -2625,19 +2688,19 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>1500</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>100</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="11">
         <v>30</v>
       </c>
       <c r="AC32">
@@ -2672,230 +2735,230 @@
   </sheetPr>
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:27" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>119</v>
+      <c r="D2" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>4</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>4</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>1</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>0</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>0</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>1</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>1</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>0</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>1</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="22">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>1</v>
       </c>
@@ -2904,327 +2967,327 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="22">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="21">
+        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
+        <v>2</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>1</v>
       </c>
-      <c r="AA14" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
-        <v>13</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="AA15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D16" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>1</v>
       </c>
-      <c r="AA15" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="AA16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D17" s="21">
+        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="21">
+        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
+        <v>2</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>1</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AA19" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="21">
+        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>19</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="21">
+        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="21">
+        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="21">
+        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
+        <v>1</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="21">
+        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="21">
+        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
+        <v>1</v>
+      </c>
+      <c r="AA25" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
-        <v>15</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="23">
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AA26" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>16</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="23">
+    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="21">
+        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
+        <v>1</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="21">
+        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="21">
+        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>2</v>
       </c>
-      <c r="AA18" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
-        <v>17</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="23">
-        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
-        <v>1</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
-        <v>18</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="23">
-        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
-        <v>1</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
-        <v>19</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="23">
-        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
-        <v>1</v>
-      </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AA30" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
-        <v>20</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="23">
-        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
-        <v>21</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="23">
-        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
-        <v>1</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
-        <v>23</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="23">
-        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
-        <v>24</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="23">
-        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
-        <v>1</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
-        <v>25</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="23">
-        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
-        <v>26</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="23">
-        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
-        <v>1</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
-        <v>27</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="23">
-        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
-        <v>28</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="23">
-        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
-        <v>29</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="23">
+    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="21">
         <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
         <v>2</v>
       </c>
-      <c r="AA30" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
-        <v>30</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="23">
-        <f>COUNTIF(Table1[Codul],Table2[[#This Row],[Codul]])</f>
-        <v>2</v>
-      </c>
       <c r="AA31" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3232,59 +3295,66 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="27:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="25">
+        <f>ROWS(Table1[Denumire])</f>
+        <v>30</v>
+      </c>
       <c r="AA33" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA34" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA35" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA36" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA37" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA38" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA39" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA40" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA41" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA42" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="27:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA34" s="1" t="s">
+    <row r="43" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA43" s="1" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="27:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA35" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="27:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA36" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="27:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA37" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="27:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA38" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="27:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA39" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="27:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA40" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="27:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA41" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="27:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA42" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="27:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA43" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3308,14 +3378,720 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>6</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>5</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>2</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="28">
+        <f>SUMIF(Table2[Țara], Table3[[#This Row],[Țara]],Table2[Nr. de jucării produse])</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>